--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,19 +974,19 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -967,28 +994,31 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,16 +1042,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1038,28 +1072,31 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1136,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1105,19 +1148,19 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1192,19 +1244,19 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -1212,8 +1264,11 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1221,19 +1276,19 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,16 +1424,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1386,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1395,19 +1468,19 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1453,19 +1532,19 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1551,19 +1638,22 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,22 +1745,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1672,14 +1771,17 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1696,19 +1798,22 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1756,8 +1864,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1925,22 +2051,25 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,16 +2095,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
@@ -1982,11 +2113,11 @@
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -1994,16 +2125,19 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -2012,27 +2146,30 @@
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2043,8 +2180,8 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -2052,16 +2189,19 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -2072,8 +2212,8 @@
       <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+      <c r="I60" s="3">
+        <v>300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,16 +2381,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -2246,8 +2404,8 @@
       <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+      <c r="I66" s="3">
+        <v>300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
       </c>
       <c r="G76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2601,19 +2796,19 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,13 +3022,16 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2823,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,13 +3338,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3113,19 +3359,22 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3168,18 +3420,21 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,8 +731,8 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -748,8 +752,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,16 +907,19 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -916,14 +936,17 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,31 +991,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -997,8 +1024,11 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1008,20 +1038,20 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,8 +1088,8 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1075,8 +1109,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,20 +1123,20 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,31 +1179,34 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1171,8 +1214,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,31 +1284,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1267,31 +1319,34 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,8 +1508,8 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1459,31 +1529,34 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,31 +1599,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1641,19 +1728,22 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,40 +1844,46 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1801,19 +1903,22 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1867,8 +1975,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2159,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2054,22 +2180,25 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2107,8 +2238,8 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -2116,11 +2247,11 @@
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2137,10 +2271,10 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -2149,19 +2283,22 @@
         <v>300</v>
       </c>
       <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2171,8 +2308,8 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2183,8 +2320,8 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -2192,8 +2329,11 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2201,10 +2341,10 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -2215,8 +2355,8 @@
       <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+      <c r="J60" s="3">
+        <v>300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,8 +2539,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2393,10 +2551,10 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
@@ -2407,8 +2565,8 @@
       <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+      <c r="J66" s="3">
+        <v>300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,8 +2729,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2567,31 +2741,34 @@
         <v>-9100</v>
       </c>
       <c r="E72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,8 +2869,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2695,31 +2881,34 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
       </c>
       <c r="H76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,68 +2939,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,17 +3239,20 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -3043,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,17 +3584,20 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3362,19 +3608,22 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3423,18 +3675,21 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -755,16 +762,22 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -790,16 +803,22 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -825,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,22 +943,28 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -939,14 +978,20 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1043,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,19 +1142,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1112,43 +1179,55 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,43 +1261,55 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,19 +1630,25 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1532,43 +1671,55 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1878,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1716,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1731,19 +1904,25 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1956,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1788,20 +1973,20 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1812,8 +1997,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,19 +2038,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1870,28 +2067,34 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1906,19 +2109,25 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2161,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1978,17 +2193,23 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2243,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2325,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2366,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,16 +2407,22 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2183,22 +2434,28 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2486,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2241,64 +2502,76 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
-      </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2311,11 +2584,11 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2323,34 +2596,40 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
-      </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -2358,17 +2637,23 @@
       <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
+      <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>300</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2728,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,25 +2851,31 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
-      </c>
       <c r="H66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
@@ -2568,17 +2883,23 @@
       <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
+      <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>300</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3073,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3237,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
+      <c r="L76" s="3">
+        <v>-100</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3427,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3464,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,13 +3669,19 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -3257,28 +3690,34 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3731,10 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3768,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3850,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3891,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,13 +4072,19 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -3602,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3611,19 +4102,25 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +4154,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3678,18 +4181,24 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,8 +786,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,8 +830,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,14 +980,14 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -984,14 +1004,17 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1057,28 +1084,28 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1086,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1098,28 +1128,28 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1197,28 +1234,28 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1226,13 +1263,16 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1267,8 +1307,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1279,28 +1322,28 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,8 +1439,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1402,28 +1454,28 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1431,8 +1483,11 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1443,28 +1498,28 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,8 +1747,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1689,28 +1762,28 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1835,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1771,28 +1850,28 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,11 +1976,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1910,19 +1997,22 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1973,8 +2066,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1988,8 +2081,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,61 +2140,67 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2115,19 +2217,22 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,13 +2272,16 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2199,8 +2307,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,20 +2536,23 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2440,22 +2566,25 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2508,8 +2639,8 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2517,11 +2648,11 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -2529,28 +2660,31 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -2559,19 +2693,22 @@
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2590,8 +2727,8 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2602,8 +2739,8 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
@@ -2611,28 +2748,31 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
@@ -2643,8 +2783,8 @@
       <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>300</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,28 +3012,31 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
@@ -2889,8 +3047,8 @@
       <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>300</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="E72" s="3">
         <v>-9600</v>
       </c>
       <c r="F72" s="3">
-        <v>-9100</v>
+        <v>-9600</v>
       </c>
       <c r="G72" s="3">
         <v>-9100</v>
       </c>
       <c r="H72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,8 +3426,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3255,28 +3441,28 @@
         <v>-400</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
       </c>
       <c r="K76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+      <c r="M76" s="3">
+        <v>-100</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,54 +3514,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3383,28 +3578,28 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3687,13 +3904,13 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -3702,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4090,14 +4336,14 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4108,19 +4354,22 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4187,18 +4439,21 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +796,8 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +843,8 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,14 +1003,14 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1087,28 +1114,28 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1116,8 +1143,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1131,28 +1161,28 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1237,28 +1274,28 @@
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1266,16 +1303,19 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1310,8 +1350,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1325,28 +1368,28 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1457,28 +1509,28 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1486,8 +1538,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1501,28 +1556,28 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1820,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1765,28 +1838,28 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1853,28 +1932,28 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,11 +2066,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2000,19 +2087,22 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2069,8 +2162,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2084,8 +2177,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,58 +2251,61 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2220,19 +2322,22 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,16 +2380,19 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2310,8 +2418,8 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,23 +2662,26 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2569,22 +2695,25 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2642,8 +2773,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2651,11 +2782,11 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -2663,31 +2794,34 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -2696,19 +2830,22 @@
         <v>300</v>
       </c>
       <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2730,8 +2867,8 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2742,8 +2879,8 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,22 +2900,22 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -2786,8 +2926,8 @@
       <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>300</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,22 +3182,22 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -3050,8 +3208,8 @@
       <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
+      <c r="N66" s="3">
+        <v>300</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-9600</v>
       </c>
       <c r="F72" s="3">
         <v>-9600</v>
       </c>
       <c r="G72" s="3">
-        <v>-9100</v>
+        <v>-9600</v>
       </c>
       <c r="H72" s="3">
         <v>-9100</v>
       </c>
       <c r="I72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,13 +3612,16 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
@@ -3444,28 +3630,28 @@
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
+      <c r="N76" s="3">
+        <v>-100</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3581,28 +3776,28 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3907,13 +4124,13 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3922,13 +4139,13 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,14 +4585,14 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4357,19 +4603,22 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4442,18 +4694,21 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +805,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +855,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,14 +1025,14 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1030,14 +1049,17 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1117,28 +1143,28 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1146,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1164,28 +1193,28 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1193,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1277,28 +1313,28 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -1306,8 +1342,11 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,8 +1356,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1353,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1371,28 +1413,28 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1400,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1512,28 +1563,28 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1541,8 +1592,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1559,28 +1613,28 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1588,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1841,28 +1913,28 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -1870,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1935,28 +2013,28 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -1964,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,13 +2139,14 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2069,11 +2155,11 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2090,19 +2176,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2165,8 +2257,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2180,8 +2272,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,61 +2352,64 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2325,19 +2426,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2394,8 +2501,8 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2421,8 +2528,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2430,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,26 +2787,29 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2698,22 +2823,25 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2776,8 +2906,8 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2785,11 +2915,11 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
@@ -2797,34 +2927,37 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -2833,45 +2966,48 @@
         <v>300</v>
       </c>
       <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2882,8 +3018,8 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
@@ -2891,34 +3027,37 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
       </c>
       <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -2929,8 +3068,8 @@
       <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+      <c r="O60" s="3">
+        <v>300</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,34 +3327,37 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -3211,8 +3368,8 @@
       <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
+      <c r="O66" s="3">
+        <v>300</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
@@ -3220,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-9600</v>
       </c>
       <c r="G72" s="3">
         <v>-9600</v>
       </c>
       <c r="H72" s="3">
-        <v>-9100</v>
+        <v>-9600</v>
       </c>
       <c r="I72" s="3">
         <v>-9100</v>
       </c>
       <c r="J72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,16 +3797,19 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
@@ -3633,28 +3818,28 @@
         <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
+      <c r="O76" s="3">
+        <v>-100</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
@@ -3662,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3779,28 +3973,28 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -3808,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4127,13 +4343,13 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4142,13 +4358,13 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,13 +4812,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -4588,14 +4833,14 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4606,19 +4851,22 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,13 +4912,16 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4697,18 +4948,21 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +796,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,11 +822,11 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -838,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -858,11 +878,11 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -888,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,17 +1068,17 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1052,14 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,37 +1200,43 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1196,37 +1256,43 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1363,14 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1316,54 +1390,60 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1395,8 +1475,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1416,37 +1502,43 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1643,14 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1566,37 +1670,43 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1616,37 +1726,43 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +2035,14 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1916,37 +2062,43 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2016,92 +2174,104 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,32 +2312,34 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2179,19 +2353,25 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2260,11 +2446,11 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2275,11 +2461,11 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2290,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,34 +2532,40 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2378,44 +2576,50 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2429,19 +2633,25 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,25 +2700,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2531,17 +2747,23 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2701,20 +2941,20 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +3036,14 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,23 +3051,23 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2826,22 +3078,28 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2909,79 +3171,91 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
-      </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2991,29 +3265,29 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3021,49 +3295,55 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
-      </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -3071,17 +3351,23 @@
       <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+      <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>300</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,31 +3416,37 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,40 +3640,46 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
       </c>
       <c r="I66" s="3">
+        <v>600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
-      </c>
       <c r="M66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -3371,17 +3687,23 @@
       <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
+      <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>300</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="E76" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
+      <c r="Q76" s="3">
+        <v>-100</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3976,37 +4366,43 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,7 +4768,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4346,7 +4780,7 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4355,28 +4789,34 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,31 +4835,33 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,31 +4999,37 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,19 +5301,25 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -4836,7 +5328,7 @@
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -4845,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4854,42 +5346,48 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4915,20 +5413,26 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4951,18 +5455,24 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,11 +841,11 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,11 +903,11 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,17 +1113,17 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1098,14 +1137,20 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1206,37 +1259,43 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1262,37 +1321,43 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1396,37 +1469,43 @@
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,20 +1515,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1481,8 +1560,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1508,37 +1593,43 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1676,37 +1779,43 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1732,37 +1841,43 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2068,37 +2213,43 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2180,98 +2337,110 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,38 +2485,40 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2359,19 +2532,25 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2452,11 +2637,11 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2467,11 +2652,11 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,28 +2747,28 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2582,50 +2779,56 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2639,19 +2842,25 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2717,20 +2932,20 @@
       <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2753,17 +2968,23 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,11 +3180,11 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2956,11 +3195,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,38 +3287,44 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>200</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -3084,22 +3335,28 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3177,85 +3438,97 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>300</v>
-      </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3265,11 +3538,11 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -3280,20 +3553,20 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3301,55 +3574,61 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
       </c>
       <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
+        <v>500</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
-      </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3357,17 +3636,23 @@
       <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
+      <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
+        <v>300</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,22 +3707,28 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3448,11 +3739,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,46 +3955,52 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>500</v>
       </c>
       <c r="K66" s="3">
+        <v>600</v>
+      </c>
+      <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>300</v>
-      </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -3693,17 +4008,23 @@
       <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
+      <c r="R66" s="3">
+        <v>300</v>
+      </c>
+      <c r="S66" s="3">
+        <v>300</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4537,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4184,52 +4555,58 @@
         <v>-700</v>
       </c>
       <c r="F76" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="G76" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
+      <c r="S76" s="3">
+        <v>-100</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4372,37 +4761,43 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,23 +5186,29 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
@@ -4786,7 +5219,7 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -4795,28 +5228,34 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,19 +5276,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4863,11 +5304,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,19 +5458,25 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5031,11 +5490,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,25 +5792,31 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -5334,7 +5825,7 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -5343,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5352,30 +5843,36 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
@@ -5389,11 +5886,11 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,17 +5931,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5461,18 +5964,24 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -5292,17 +5292,17 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QDMI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>QDMI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,112 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>3300</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -815,16 +823,22 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -847,11 +861,11 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -877,16 +891,22 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>1300</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -909,11 +929,11 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,17 +1159,17 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1143,14 +1183,20 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,16 +1284,18 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1265,45 +1319,51 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>1100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1327,37 +1387,43 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1446,15 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1442,16 +1510,22 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>1100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1475,37 +1549,43 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1521,20 +1601,20 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1566,16 +1646,22 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>1100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1599,60 +1685,66 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,16 +1850,22 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>900</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1785,45 +1889,51 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>900</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1847,37 +1957,43 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2258,19 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2186,16 +2326,22 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>900</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2219,37 +2365,43 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,16 +2462,22 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>900</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2343,104 +2501,116 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,44 +2659,46 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2538,19 +2712,25 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,16 +2791,22 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2643,11 +2829,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2658,11 +2844,11 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,16 +2927,22 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2753,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2762,19 +2960,19 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2785,56 +2983,62 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2848,19 +3052,25 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,13 +3131,19 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2938,20 +3154,20 @@
       <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2974,17 +3190,23 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3403,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3186,11 +3426,11 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3201,11 +3441,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,44 +3539,50 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3341,22 +3593,28 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,16 +3663,18 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -3444,96 +3706,108 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
-      </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3544,11 +3818,11 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -3559,20 +3833,20 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3580,61 +3854,67 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
-      </c>
       <c r="Q60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
@@ -3642,17 +3922,23 @@
       <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
+      <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
+        <v>300</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,28 +3999,34 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3745,11 +4037,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,52 +4271,58 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
       </c>
       <c r="M66" s="3">
+        <v>600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
-      </c>
       <c r="Q66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -4014,17 +4330,23 @@
       <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
+      <c r="T66" s="3">
+        <v>300</v>
+      </c>
+      <c r="U66" s="3">
+        <v>300</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-9100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,16 +4909,22 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>2700</v>
       </c>
       <c r="E76" s="3">
-        <v>-700</v>
+        <v>1800</v>
       </c>
       <c r="F76" s="3">
         <v>-800</v>
@@ -4561,52 +4933,58 @@
         <v>-700</v>
       </c>
       <c r="H76" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="I76" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
+      <c r="U76" s="3">
+        <v>-100</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,83 +5045,95 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>900</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -4767,37 +5157,43 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,29 +5620,35 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
@@ -5225,7 +5659,7 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5234,28 +5668,34 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,13 +5718,15 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5304,17 +5746,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5918,19 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5478,11 +5938,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5496,11 +5956,11 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,31 +6284,37 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -5831,7 +6323,7 @@
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -5840,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5849,19 +6341,25 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5874,11 +6372,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -5892,11 +6390,11 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5922,32 +6420,38 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5970,18 +6474,24 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
